--- a/Dictionnaire de données aeroclub.xlsx
+++ b/Dictionnaire de données aeroclub.xlsx
@@ -334,6 +334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,11 +351,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,13 +646,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -820,13 +820,13 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -961,13 +961,13 @@
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
@@ -987,51 +987,51 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18" t="s">
-        <v>6</v>
-      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -1093,13 +1093,13 @@
       <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -1194,13 +1194,13 @@
       <c r="E48" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="16"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
@@ -1359,13 +1359,13 @@
       <c r="E65" s="1"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -1466,11 +1466,11 @@
       <c r="E76" s="1"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="12"/>
@@ -1536,11 +1536,11 @@
       <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>

--- a/Dictionnaire de données aeroclub.xlsx
+++ b/Dictionnaire de données aeroclub.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="129">
-  <si>
-    <t>AVION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
   <si>
     <t>nom symbolique</t>
   </si>
@@ -123,9 +120,6 @@
     <t>utilisateur</t>
   </si>
   <si>
-    <t>PILOTE</t>
-  </si>
-  <si>
     <t>NUMPIL</t>
   </si>
   <si>
@@ -162,15 +156,6 @@
     <t>nombre d'heures de vol</t>
   </si>
   <si>
-    <t>ETATPIL</t>
-  </si>
-  <si>
-    <t>état du pilote</t>
-  </si>
-  <si>
-    <t>AN(3)</t>
-  </si>
-  <si>
     <t>ADRESSEID</t>
   </si>
   <si>
@@ -306,9 +291,6 @@
     <t>Décimal(5,2)</t>
   </si>
   <si>
-    <t>Pilotage</t>
-  </si>
-  <si>
     <t>Numéro du type</t>
   </si>
   <si>
@@ -321,24 +303,12 @@
     <t>Intitulé de l'état</t>
   </si>
   <si>
-    <t>Etat-pilote-situation</t>
-  </si>
-  <si>
-    <t>Etat-pilote-présence</t>
-  </si>
-  <si>
-    <t>Etat-avion</t>
-  </si>
-  <si>
     <t>NUMETATAV</t>
   </si>
   <si>
     <t>NOMETATAV</t>
   </si>
   <si>
-    <t>VISITE</t>
-  </si>
-  <si>
     <t>NUMVISIT</t>
   </si>
   <si>
@@ -369,9 +339,6 @@
     <t>numéro de la visite</t>
   </si>
   <si>
-    <t>Etat-pilote-sante</t>
-  </si>
-  <si>
     <t>NUMSANTE</t>
   </si>
   <si>
@@ -406,6 +373,60 @@
   </si>
   <si>
     <t>NUMETYPE</t>
+  </si>
+  <si>
+    <t>ETAT_SANTE</t>
+  </si>
+  <si>
+    <t>ETAT_SIT</t>
+  </si>
+  <si>
+    <t>ETAT_PRES</t>
+  </si>
+  <si>
+    <t>civilité du pilote</t>
+  </si>
+  <si>
+    <t>état situation</t>
+  </si>
+  <si>
+    <t>état santé</t>
+  </si>
+  <si>
+    <t>état présence</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>NUMAVION</t>
+  </si>
+  <si>
+    <t>AVIONS</t>
+  </si>
+  <si>
+    <t>PILOTES</t>
+  </si>
+  <si>
+    <t>VISITES</t>
+  </si>
+  <si>
+    <t>clé primaire, clé secondaire</t>
+  </si>
+  <si>
+    <t>ETAT_AVION</t>
+  </si>
+  <si>
+    <t>ETAT_PILOTE_PRESENCE</t>
+  </si>
+  <si>
+    <t>ETAT_PILOTE_SANTE</t>
+  </si>
+  <si>
+    <t>ETAT_PILOTE_SITUATION</t>
+  </si>
+  <si>
+    <t>PILOTAGE</t>
   </si>
 </sst>
 </file>
@@ -462,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -480,24 +501,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -596,31 +599,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -908,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ146"/>
+  <dimension ref="A1:AMJ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,1817 +919,1869 @@
     <col min="2" max="2" width="22.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="1024" width="9.875" style="1" customWidth="1"/>
     <col min="1025" max="1025" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
+      <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
+      <c r="A41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
+      <c r="A42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="A48" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
+      <c r="A51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="A57" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>8</v>
+        <v>114</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>26</v>
+      <c r="A62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="A68" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>5</v>
+      <c r="A79" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10" t="s">
-        <v>9</v>
-      </c>
+      <c r="A82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
+      <c r="A86" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
+      <c r="A88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A89" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D90" s="3"/>
-      <c r="E90" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
+      <c r="A92" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
+      <c r="A93" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
+      <c r="A95" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
+      <c r="A100" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>5</v>
+      <c r="A101" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D102" s="3"/>
-      <c r="E102" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>42</v>
+        <v>123</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="E103" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>113</v>
+      <c r="A104" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="12"/>
+      <c r="C109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D112" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E112" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
+      <c r="E113" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="E114" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="A115" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
+      <c r="A118" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B119" s="11"/>
-      <c r="C119" s="11"/>
-      <c r="D119" s="11"/>
-      <c r="E119" s="11"/>
+      <c r="A119" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
+      <c r="E123" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>27</v>
+        <v>104</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
+      <c r="A125" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="C130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="8"/>
-      <c r="B127" s="8"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="15"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="C131" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="5"/>
+      <c r="B132" s="5"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="E134" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
+      <c r="E135" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B139" s="11"/>
-      <c r="C139" s="11"/>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
+      <c r="A139" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A140" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
+      <c r="E143" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A95:E95"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A51:E51"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A77:E77"/>
     <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A119:E119"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A78:E78"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A130:E130"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Dictionnaire de données aeroclub.xlsx
+++ b/Dictionnaire de données aeroclub.xlsx
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2600,7 @@
         <v>67</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3" t="s">
@@ -2769,11 +2769,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A133:E133"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A121:E121"/>
@@ -2782,6 +2777,11 @@
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Dictionnaire de données aeroclub.xlsx
+++ b/Dictionnaire de données aeroclub.xlsx
@@ -909,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
@@ -2769,6 +2769,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A48:E48"/>
     <mergeCell ref="A133:E133"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A121:E121"/>
@@ -2777,11 +2782,6 @@
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Dictionnaire de données aeroclub.xlsx
+++ b/Dictionnaire de données aeroclub.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="134">
   <si>
     <t>nom symbolique</t>
   </si>
@@ -318,16 +318,10 @@
     <t>RESULTAT</t>
   </si>
   <si>
-    <t>TYPVISIT</t>
-  </si>
-  <si>
     <t>CODOBJ</t>
   </si>
   <si>
     <t>code de l'objet</t>
-  </si>
-  <si>
-    <t>type de visite</t>
   </si>
   <si>
     <t>résultat de la visite</t>
@@ -907,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ147"/>
+  <dimension ref="A1:AMJ146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1091,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1329,7 +1323,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1611,7 +1605,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1637,10 +1631,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -1652,7 +1646,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>6</v>
@@ -1667,10 +1661,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>40</v>
@@ -1680,10 +1674,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>19</v>
@@ -1745,7 +1739,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -1771,7 +1765,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>90</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>93</v>
@@ -1851,7 +1845,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -1877,7 +1871,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>90</v>
@@ -1892,7 +1886,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>93</v>
@@ -1964,7 +1958,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>90</v>
@@ -2005,7 +1999,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>93</v>
@@ -2077,7 +2071,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -2144,10 +2138,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>7</v>
@@ -2187,10 +2181,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>19</v>
@@ -2202,10 +2196,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>19</v>
@@ -2217,10 +2211,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>19</v>
@@ -2284,7 +2278,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -2310,7 +2304,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>90</v>
@@ -2335,7 +2329,7 @@
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,7 +2408,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -2443,7 +2437,7 @@
         <v>96</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>7</v>
@@ -2458,7 +2452,7 @@
         <v>97</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>40</v>
@@ -2471,7 +2465,7 @@
         <v>98</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>19</v>
@@ -2480,39 +2474,39 @@
       <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
+      <c r="B126" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>101</v>
+      <c r="A127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>26</v>
@@ -2522,10 +2516,10 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>26</v>
@@ -2535,84 +2529,84 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="A131" s="5"/>
+      <c r="B131" s="5"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>4</v>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D135" s="3"/>
-      <c r="E135" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>40</v>
@@ -2622,23 +2616,23 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>11</v>
@@ -2648,49 +2642,51 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
+      <c r="E141" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>7</v>
@@ -2702,25 +2698,23 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D143" s="3"/>
-      <c r="E143" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>26</v>
@@ -2730,10 +2724,10 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>26</v>
@@ -2743,38 +2737,20 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="A132:E132"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A121:E121"/>
     <mergeCell ref="A86:E86"/>
@@ -2782,6 +2758,11 @@
     <mergeCell ref="A111:E111"/>
     <mergeCell ref="A77:E77"/>
     <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="1.1437007874015752" bottom="1.1437007874015752" header="0.75000000000000011" footer="0.75000000000000011"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
